--- a/jyx2/Assets/Mods/JYX2/Configs/Lua武功.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/Lua武功.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4DF18A-A167-42B3-8308-4A6C187A08FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C56239-A8FF-48A9-B7A2-F34403B5053C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4610" yWindow="1480" windowWidth="19140" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -74,19 +74,10 @@
     <t>Poison</t>
   </si>
   <si>
-    <t>Levels</t>
-  </si>
-  <si>
     <t>代号</t>
   </si>
   <si>
     <t>名称</t>
-  </si>
-  <si>
-    <t>伤害类型</t>
-  </si>
-  <si>
-    <t>攻击范围</t>
   </si>
   <si>
     <t>消耗内力点数</t>
@@ -670,6 +661,18 @@
   </si>
   <si>
     <t>L_number,L_number,L_number,L_number,L_number[]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Levels-Attack,SelectRange,AttackRange,AddMp,KillMp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害类型 普通 = 0, 吸内 = 1, 用毒 = 2, 解毒 = 3, 医疗 = 4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围 点攻击 = 0, 线攻击 = 1, 十字攻击 = 2, 面攻击 = 3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -783,7 +786,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,7 +794,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -799,6 +801,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1152,66 +1163,68 @@
   <dimension ref="A1:G204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
     <col min="7" max="7" width="112" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A1" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1233,8 +1246,8 @@
       <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
-        <v>6</v>
+      <c r="G4" s="6" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1242,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -1257,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1265,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -1280,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1288,7 +1301,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -1303,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1311,7 +1324,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -1326,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1334,7 +1347,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -1349,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1357,7 +1370,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -1372,7 +1385,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1380,7 +1393,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -1395,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1403,7 +1416,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -1418,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1426,7 +1439,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -1441,7 +1454,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1449,7 +1462,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -1464,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1472,7 +1485,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -1487,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1495,7 +1508,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -1510,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1518,7 +1531,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -1533,7 +1546,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1541,7 +1554,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -1556,7 +1569,7 @@
         <v>6</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1564,7 +1577,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -1579,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1587,7 +1600,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -1602,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1610,7 +1623,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -1625,7 +1638,7 @@
         <v>7</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1633,7 +1646,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -1648,7 +1661,7 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1656,7 +1669,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -1671,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1679,7 +1692,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -1694,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1702,7 +1715,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -1717,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1725,7 +1738,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
@@ -1740,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1748,7 +1761,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -1763,7 +1776,7 @@
         <v>50</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1771,7 +1784,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
@@ -1786,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1794,7 +1807,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -1809,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1817,7 +1830,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
@@ -1832,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1840,7 +1853,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
@@ -1855,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1863,7 +1876,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -1878,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1886,7 +1899,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -1901,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1909,7 +1922,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -1924,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1932,7 +1945,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
@@ -1947,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1955,7 +1968,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
@@ -1970,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1978,7 +1991,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
@@ -1993,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2001,7 +2014,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
@@ -2016,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2024,7 +2037,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
@@ -2039,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2047,7 +2060,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
@@ -2062,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2070,7 +2083,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
@@ -2085,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2093,7 +2106,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
@@ -2108,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2116,7 +2129,7 @@
         <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
@@ -2131,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2139,7 +2152,7 @@
         <v>39</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -2154,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2162,7 +2175,7 @@
         <v>40</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -2177,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2185,7 +2198,7 @@
         <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -2200,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2208,7 +2221,7 @@
         <v>42</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -2223,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2231,7 +2244,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -2246,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2254,7 +2267,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -2269,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2277,7 +2290,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -2292,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2300,7 +2313,7 @@
         <v>46</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -2315,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2323,7 +2336,7 @@
         <v>47</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -2338,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2346,7 +2359,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -2361,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2369,7 +2382,7 @@
         <v>49</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -2384,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2392,7 +2405,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -2407,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2415,7 +2428,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -2430,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2438,7 +2451,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -2453,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2461,7 +2474,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -2476,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2484,7 +2497,7 @@
         <v>54</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -2499,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2507,7 +2520,7 @@
         <v>55</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -2522,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2530,7 +2543,7 @@
         <v>56</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -2545,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2553,7 +2566,7 @@
         <v>57</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -2568,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2576,7 +2589,7 @@
         <v>58</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -2591,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2599,7 +2612,7 @@
         <v>59</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -2614,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2622,7 +2635,7 @@
         <v>60</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -2637,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2645,7 +2658,7 @@
         <v>61</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -2660,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2668,7 +2681,7 @@
         <v>62</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C67" s="2">
         <v>0</v>
@@ -2683,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2691,7 +2704,7 @@
         <v>63</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -2706,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2714,7 +2727,7 @@
         <v>64</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -2729,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2737,7 +2750,7 @@
         <v>65</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -2752,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2760,7 +2773,7 @@
         <v>66</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -2775,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2783,7 +2796,7 @@
         <v>67</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -2798,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2806,7 +2819,7 @@
         <v>68</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -2821,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2829,7 +2842,7 @@
         <v>69</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -2844,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2852,7 +2865,7 @@
         <v>70</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -2867,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2875,7 +2888,7 @@
         <v>71</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -2890,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2898,7 +2911,7 @@
         <v>72</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -2913,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2921,7 +2934,7 @@
         <v>73</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -2936,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2944,7 +2957,7 @@
         <v>74</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -2959,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2967,7 +2980,7 @@
         <v>75</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -2982,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2990,7 +3003,7 @@
         <v>76</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -3005,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3013,7 +3026,7 @@
         <v>77</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -3028,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3036,7 +3049,7 @@
         <v>78</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -3051,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3059,7 +3072,7 @@
         <v>79</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -3074,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3082,7 +3095,7 @@
         <v>80</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -3097,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3105,7 +3118,7 @@
         <v>81</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
@@ -3120,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3128,7 +3141,7 @@
         <v>82</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
@@ -3143,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3151,7 +3164,7 @@
         <v>83</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
@@ -3166,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3174,7 +3187,7 @@
         <v>84</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C89" s="2">
         <v>0</v>
@@ -3189,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3197,7 +3210,7 @@
         <v>85</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C90" s="2">
         <v>0</v>
@@ -3212,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3220,7 +3233,7 @@
         <v>86</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
@@ -3235,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3243,7 +3256,7 @@
         <v>87</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
@@ -3258,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3266,7 +3279,7 @@
         <v>88</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
@@ -3281,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3289,7 +3302,7 @@
         <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -3304,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3312,7 +3325,7 @@
         <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -3327,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3335,7 +3348,7 @@
         <v>91</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -3350,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3358,7 +3371,7 @@
         <v>92</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -3373,84 +3386,84 @@
         <v>0</v>
       </c>
       <c r="G97" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>93</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C98" s="3">
+        <v>2</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0</v>
+      </c>
+      <c r="E98" s="3">
+        <v>10</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>94</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C99" s="3">
+        <v>3</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0</v>
+      </c>
+      <c r="E99" s="3">
+        <v>10</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>95</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
-        <v>93</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" s="4">
-        <v>2</v>
-      </c>
-      <c r="D98" s="4">
-        <v>0</v>
-      </c>
-      <c r="E98" s="4">
+      <c r="C100" s="3">
+        <v>4</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>10</v>
       </c>
-      <c r="F98" s="4">
-        <v>0</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
-        <v>94</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C99" s="4">
-        <v>3</v>
-      </c>
-      <c r="D99" s="4">
-        <v>0</v>
-      </c>
-      <c r="E99" s="4">
-        <v>10</v>
-      </c>
-      <c r="F99" s="4">
-        <v>0</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
-        <v>95</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C100" s="4">
-        <v>4</v>
-      </c>
-      <c r="D100" s="4">
-        <v>0</v>
-      </c>
-      <c r="E100" s="4">
-        <v>10</v>
-      </c>
-      <c r="F100" s="4">
-        <v>0</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>193</v>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>96</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>197</v>
+      <c r="B101" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -3465,30 +3478,30 @@
         <v>0</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
+      <c r="A102" s="3">
         <v>97</v>
       </c>
-      <c r="B102" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C102" s="4">
+      <c r="B102" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C102" s="3">
         <v>5</v>
       </c>
-      <c r="D102" s="4">
-        <v>0</v>
-      </c>
-      <c r="E102" s="4">
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>10</v>
       </c>
-      <c r="F102" s="4">
-        <v>0</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>193</v>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
